--- a/data/income_statement/2digits/total/09_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/09_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>09-Mining support service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>09-Mining support service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>111058.23528</v>
@@ -956,19 +862,19 @@
         <v>260257.55044</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>970397.1824899999</v>
+        <v>970397.18249</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>569211.4504699999</v>
+        <v>569211.45047</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>585552.5240600001</v>
+        <v>585552.52406</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>8039588.23656</v>
+        <v>842876.4496700001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>620485.07371</v>
+        <v>620485.0737099999</v>
       </c>
       <c r="J5" s="47" t="n">
         <v>570439.62778</v>
@@ -977,16 +883,21 @@
         <v>882418.25115</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2277984.89789</v>
+        <v>2306761.19873</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>4314931.664310001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4558054.08751</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>5578106.237</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>100233.15293</v>
@@ -995,16 +906,16 @@
         <v>241275.38463</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>854445.1062200001</v>
+        <v>854445.1062200002</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>523114.0992400001</v>
+        <v>523114.09924</v>
       </c>
       <c r="G6" s="48" t="n">
         <v>567084.83964</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>8017771.145110001</v>
+        <v>821059.3582200001</v>
       </c>
       <c r="I6" s="48" t="n">
         <v>591338.39725</v>
@@ -1016,16 +927,21 @@
         <v>819937.44095</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2133611.11713</v>
+        <v>2161917.52208</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>4166243.91192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4408312.203699999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>5478850.656</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>9711.04508</v>
@@ -1055,22 +971,27 @@
         <v>25282.91425</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>108118.72316</v>
+        <v>108584.72763</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>99782.58159999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>100421.08105</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>46616.473</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>1114.03727</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>6244.462590000001</v>
+        <v>6244.46259</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>43751.07156</v>
@@ -1094,16 +1015,21 @@
         <v>37197.89595000001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>36255.05759999999</v>
+        <v>36258.94902</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>48905.17079</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>49320.80276000001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>52639.108</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>505.68303</v>
@@ -1112,7 +1038,7 @@
         <v>3548.12808</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>6277.534269999999</v>
+        <v>6277.53427</v>
       </c>
       <c r="F9" s="47" t="n">
         <v>2450.21592</v>
@@ -1121,7 +1047,7 @@
         <v>4334.69949</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>7228162.134930001</v>
+        <v>31450.34804</v>
       </c>
       <c r="I9" s="47" t="n">
         <v>15843.76038</v>
@@ -1133,16 +1059,21 @@
         <v>34531.41534000001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>70076.98503999999</v>
+        <v>70076.98504</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>116123.00843</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>117015.07193</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>99501.264</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>328.19895</v>
@@ -1151,16 +1082,16 @@
         <v>3528.40009</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>6206.90092</v>
+        <v>6206.900920000001</v>
       </c>
       <c r="F10" s="48" t="n">
         <v>2318.40864</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>4106.809209999999</v>
+        <v>4106.80921</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>7222058.52182</v>
+        <v>25346.73493</v>
       </c>
       <c r="I10" s="48" t="n">
         <v>15504.20333</v>
@@ -1175,13 +1106,18 @@
         <v>25420.49949</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>111761.96322</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>112654.02672</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>67599.27499999999</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>177.48408</v>
@@ -1214,13 +1150,18 @@
         <v>7.4116</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>650.5085799999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>650.5085799999999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1117.525</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>3710.53663</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>30784.464</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>110552.55225</v>
@@ -1271,43 +1217,48 @@
         <v>964119.64822</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>566761.2345499999</v>
+        <v>566761.2345500001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>581217.8245700001</v>
+        <v>581217.8245699999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>811426.10163</v>
+        <v>811426.1016300002</v>
       </c>
       <c r="I13" s="47" t="n">
         <v>604641.3133299999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>551277.1383499999</v>
+        <v>551277.13835</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>847886.8358100001</v>
+        <v>847886.83581</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2207907.91285</v>
+        <v>2236684.21369</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>4198808.65588</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4441039.01558</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>5478604.973</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>94351.65074000003</v>
+        <v>94351.65074</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>210318.64417</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>748849.66295</v>
+        <v>748849.6629500001</v>
       </c>
       <c r="F14" s="47" t="n">
         <v>394660.36709</v>
@@ -1316,7 +1267,7 @@
         <v>501384.52615</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>633007.40446</v>
+        <v>633007.4044599999</v>
       </c>
       <c r="I14" s="47" t="n">
         <v>492573.5532</v>
@@ -1328,16 +1279,21 @@
         <v>660033.31421</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1794427.58677</v>
+        <v>1823788.35078</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2991576.3038</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3218137.74024</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>4143272.133</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>2922.81692</v>
@@ -1361,7 +1317,7 @@
         <v>28099.19427</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>31340.49171</v>
+        <v>31340.49170999999</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>45463.13869000001</v>
@@ -1370,19 +1326,24 @@
         <v>103276.5956</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>72977.74953</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>75354.18506</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>164554.117</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>8828.11549</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>41452.17175</v>
+        <v>41452.17174999999</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>82539.09141999998</v>
@@ -1397,7 +1358,7 @@
         <v>107830.57931</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>88566.11281000001</v>
+        <v>88566.11280999999</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>65570.35202999999</v>
@@ -1406,28 +1367,33 @@
         <v>83605.44667</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>402616.78834</v>
+        <v>403134.8833400001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>559931.6455699999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>565674.22</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1158450.38</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>82260.11399</v>
+        <v>82260.11399000001</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>157897.9179</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>641419.4186699999</v>
+        <v>641419.41867</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>278257.0350200001</v>
+        <v>278257.03502</v>
       </c>
       <c r="G17" s="48" t="n">
         <v>330741.42239</v>
@@ -1445,16 +1411,21 @@
         <v>508290.47408</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1278691.37081</v>
+        <v>1307534.03982</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2315335.77717</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2533778.20365</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2799636.019</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>340.60434</v>
@@ -1472,7 +1443,7 @@
         <v>162.86622</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>591.1041300000001</v>
+        <v>591.1041299999999</v>
       </c>
       <c r="I18" s="48" t="n">
         <v>1425.59753</v>
@@ -1487,13 +1458,18 @@
         <v>9842.83202</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>43331.13153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>43331.13152999999</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>20631.617</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>16200.90151</v>
@@ -1523,19 +1499,24 @@
         <v>187853.5216</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>413480.32608</v>
+        <v>412895.86291</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1207232.35208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1222901.27534</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1335332.84</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>48967.21742999998</v>
+        <v>48967.21743</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>72125.79274999999</v>
@@ -1550,28 +1531,33 @@
         <v>144498.25412</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>215591.0707</v>
+        <v>214233.64367</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>145492.62762</v>
+        <v>146434.19262</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>147571.11295</v>
+        <v>147579.25888</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>185604.15187</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>347855.68317</v>
+        <v>352029.10467</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>592383.3184099998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>596195.2851500001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>702666.804</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1418.80593</v>
@@ -1583,7 +1569,7 @@
         <v>17702.57788</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>9626.16215</v>
+        <v>9626.162149999998</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>18148.91335</v>
@@ -1592,7 +1578,7 @@
         <v>43019.85474</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>6184.27325</v>
+        <v>6184.273249999999</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>11677.05803</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>32313.91317</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>19919.134</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>261.62748</v>
@@ -1619,7 +1610,7 @@
         <v>1236.72826</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>6650.094929999998</v>
+        <v>4595.751279999999</v>
       </c>
       <c r="F22" s="48" t="n">
         <v>2345.0643</v>
@@ -1634,31 +1625,36 @@
         <v>1555.51161</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1701.78975</v>
+        <v>1702.21146</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>7463.61727</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>9805.98696</v>
+        <v>9823.767669999999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>15363.47417</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>15400.2931</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>36219.709</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>47286.78402</v>
+        <v>47286.78402000001</v>
       </c>
       <c r="D23" s="48" t="n">
         <v>66693.31292</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>127617.84151</v>
+        <v>129672.18516</v>
       </c>
       <c r="F23" s="48" t="n">
         <v>117205.51979</v>
@@ -1667,28 +1663,33 @@
         <v>123482.19737</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>170908.36268</v>
+        <v>169550.93565</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>137752.84276</v>
+        <v>138694.40776</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>134192.26517</v>
+        <v>134199.98939</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>156917.68607</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>319365.18356</v>
+        <v>323520.82435</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>544705.93107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>548481.07888</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>646527.961</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>-32766.31592</v>
@@ -1700,73 +1701,83 @@
         <v>63299.47095</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>42924.12122</v>
+        <v>42924.12122000001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-64664.95569999999</v>
+        <v>-64664.95570000001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-37172.37353000001</v>
+        <v>-35814.94650000001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-33424.86749</v>
+        <v>-34366.43249000001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-35308.7812</v>
+        <v>-35316.92713</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>2249.369729999999</v>
+        <v>2249.36973</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>65624.64291000001</v>
+        <v>60866.75824</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>614849.0336699999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>626705.99019</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>632666.036</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>162735.59854</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>662272.9538200001</v>
+        <v>662272.9538199999</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>1008882.54301</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>894243.1798199998</v>
+        <v>894243.17982</v>
       </c>
       <c r="G25" s="47" t="n">
         <v>1313458.12578</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>2050876.18835</v>
+        <v>2048232.35304</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>5296253.742819999</v>
+        <v>5297384.42912</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>4051099.84962</v>
+        <v>4051105.44439</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>3663602.12996</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>21337335.80912</v>
+        <v>21385563.10668</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>7811160.83542</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>7847145.75161</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>31774042.338</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>6468.57383</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>7851.022</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>2572.7066</v>
@@ -1862,10 +1883,10 @@
         <v>21337.90966</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>19131.84296999999</v>
+        <v>18985.90075</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>20837.96231</v>
+        <v>20839.97569</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>21529.373</v>
@@ -1874,16 +1895,21 @@
         <v>64647.08135</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>77714.97291999999</v>
+        <v>77715.69645999999</v>
       </c>
       <c r="M28" s="48" t="n">
         <v>80681.58875999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>113524.929</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>69.11952000000001</v>
@@ -1957,20 +1988,25 @@
       <c r="M30" s="48" t="n">
         <v>721.6484099999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>6317.897</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>73928.56981000002</v>
+        <v>73928.56981</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>369.2694300000001</v>
+        <v>369.26943</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>57.70189</v>
+        <v>57.70189000000001</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>27.3647</v>
@@ -1994,16 +2030,21 @@
         <v>6877.16705</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>12676.97175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>12680.21575</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>222151.509</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>83614.30441</v>
+        <v>83614.30441000001</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>400954.93625</v>
@@ -2018,28 +2059,33 @@
         <v>926201.3278099998</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1707796.04804</v>
+        <v>1705298.15495</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>5270259.15547</v>
+        <v>5271387.82839</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3773561.82893</v>
+        <v>3773567.4237</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>3589909.01019</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>21185797.02985</v>
+        <v>21234023.60387</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>7005712.03786</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>7041643.73749</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>31304017.678</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>2550.8982</v>
@@ -2126,13 +2182,13 @@
         <v>258742.9937</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>275810.6262700001</v>
+        <v>275810.62627</v>
       </c>
       <c r="F35" s="48" t="n">
         <v>523218.5093200001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>325029.5993399999</v>
+        <v>325029.59934</v>
       </c>
       <c r="H35" s="48" t="n">
         <v>164109.4965</v>
@@ -2150,19 +2206,24 @@
         <v>40491.07959</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>704900.01481</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>704949.98737</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>120179.303</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>87187.37987</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>713617.5448700001</v>
+        <v>713617.54487</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>815712.56603</v>
@@ -2174,28 +2235,33 @@
         <v>3163138.11061</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1834158.42548</v>
+        <v>1831618.47433</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>6198754.9911</v>
+        <v>6199267.67877</v>
       </c>
       <c r="J36" s="47" t="n">
         <v>6603317.89782</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>4915249.818980001</v>
+        <v>4915249.81898</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>26331946.1358</v>
+        <v>26394310.04221</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>9030946.756790001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>9068687.040529998</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>34962199.871</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>0</v>
@@ -2228,13 +2294,18 @@
         <v>26.1676</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>705.49949</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>705.4994900000002</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>162.873</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>44.20995</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>5197.576950000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>11540.939</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>13.89556</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>2528.56484</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>1.017</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>83871.54218</v>
@@ -2330,10 +2411,10 @@
         <v>913904.4807199999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1710495.45602</v>
+        <v>1707965.02433</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>5606011.21332</v>
+        <v>5606523.90099</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>5824181.442720001</v>
@@ -2342,16 +2423,21 @@
         <v>3885767.87702</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>25712871.28044</v>
+        <v>25775234.99995</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>8989165.417549999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>9026905.696010001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>34892981.763</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>8.92769</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>3248.80449</v>
@@ -2441,13 +2537,13 @@
         <v>82796.24675000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>77158.86121999999</v>
+        <v>77158.86121999998</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2249131.58259</v>
+        <v>2249131.582590001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>108706.17698</v>
+        <v>108696.65752</v>
       </c>
       <c r="I43" s="48" t="n">
         <v>583481.7436099999</v>
@@ -2459,22 +2555,27 @@
         <v>1029327.3724</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>591134.8374300001</v>
+        <v>591135.02433</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>33349.69796</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>33349.70324</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>57513.279</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>2599.13861</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>3125.693020000001</v>
+        <v>3125.69302</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>4383.972589999999</v>
@@ -2483,7 +2584,7 @@
         <v>1577.23973</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>5113.220240000001</v>
+        <v>5113.22024</v>
       </c>
       <c r="H44" s="47" t="n">
         <v>17810.32509</v>
@@ -2498,25 +2599,30 @@
         <v>163258.48196</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>263630.51426</v>
+        <v>263638.06512</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>298306.30065</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>298429.99562</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>335271.068</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>924.2033399999999</v>
+        <v>924.2033400000003</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>2137.49819</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>3437.609930000001</v>
+        <v>3437.60993</v>
       </c>
       <c r="F45" s="48" t="n">
         <v>1413.40257</v>
@@ -2537,16 +2643,21 @@
         <v>8545.581769999999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>15050.56755</v>
+        <v>15058.11841</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>17638.60095</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>17762.29592</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>82647.753</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>1674.93527</v>
@@ -2561,7 +2672,7 @@
         <v>163.83716</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>852.71712</v>
+        <v>852.7171199999999</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>310.24146</v>
@@ -2579,13 +2690,18 @@
         <v>248579.94671</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>280667.6997</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>280667.6996999999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>252623.315</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>40182.76414</v>
@@ -2597,34 +2713,39 @@
         <v>252085.47534</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>475367.2783900001</v>
+        <v>475367.27839</v>
       </c>
       <c r="G47" s="47" t="n">
         <v>-1919458.16077</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>161735.06425</v>
+        <v>162988.60712</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-1058386.79213</v>
+        <v>-1058710.3585</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-2730934.87434</v>
+        <v>-2730937.4255</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-1412656.80125</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-5192616.198030001</v>
+        <v>-5211518.242409999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-903243.1883500001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-893265.2943499997</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-2890762.565</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>1274.59677</v>
@@ -2633,19 +2754,19 @@
         <v>2726.98744</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>4004.024800000001</v>
+        <v>4004.0248</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>6166.54824</v>
+        <v>6166.548239999999</v>
       </c>
       <c r="G48" s="47" t="n">
         <v>5119.92341</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>2634.36301</v>
+        <v>2589.43292</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>60137.84308999999</v>
+        <v>60168.03277000001</v>
       </c>
       <c r="J48" s="47" t="n">
         <v>20223.28148</v>
@@ -2654,16 +2775,21 @@
         <v>16506.45468</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>82715.24877999999</v>
+        <v>92125.8005</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>46408.5383</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>46438.33669999999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>42275.427</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>28.16576</v>
@@ -2698,17 +2824,22 @@
       <c r="M49" s="48" t="n">
         <v>1724.24867</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>8884.766</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>1246.43101</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>2709.318240000001</v>
+        <v>2709.31824</v>
       </c>
       <c r="E50" s="48" t="n">
         <v>3857.37076</v>
@@ -2720,10 +2851,10 @@
         <v>3034.53946</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>2286.5429</v>
+        <v>2241.61281</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>60129.31684000001</v>
+        <v>60159.50652</v>
       </c>
       <c r="J50" s="48" t="n">
         <v>18635.17493</v>
@@ -2732,16 +2863,21 @@
         <v>13824.46589</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>82296.37366</v>
+        <v>91706.92538</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>44684.28963</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>44714.08803</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>33390.661</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>2051.4802</v>
@@ -2756,13 +2892,13 @@
         <v>28300.47483</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>49844.44781</v>
+        <v>49844.44781000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>17262.37382</v>
+        <v>17261.3474</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>14169.44654</v>
+        <v>14159.04254</v>
       </c>
       <c r="J51" s="47" t="n">
         <v>313130.73161</v>
@@ -2771,16 +2907,21 @@
         <v>503395.24693</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>40934.19418999999</v>
+        <v>40951.32458</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>33773.52293</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>34056.25738</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>44509.91</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>786.6141</v>
@@ -2795,13 +2936,13 @@
         <v>12733.52165</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>4346.30347</v>
+        <v>4346.303470000001</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>12577.73815</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>646.8483199999999</v>
+        <v>646.8483200000001</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>357.71418</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0.975</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>6155.115</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>298.52523</v>
@@ -2834,7 +2980,7 @@
         <v>10369.15553</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>42983.44075000001</v>
+        <v>42983.44074999999</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>756.2138100000001</v>
@@ -2854,14 +3000,19 @@
       <c r="M53" s="48" t="n">
         <v>338.41995</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>8880.662</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>966.34087</v>
+        <v>966.3408699999999</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>1948.0115</v>
@@ -2876,34 +3027,39 @@
         <v>2514.70359</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>3928.42186</v>
+        <v>3927.39544</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>13150.01339</v>
+        <v>13139.60939</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>311305.90083</v>
+        <v>311305.9008300001</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>502898.76797</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>40778.06436</v>
+        <v>40795.19475</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>33434.12798</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>33716.86243</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>29474.133</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>39405.88071</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-80668.03905000001</v>
+        <v>-80668.03904999998</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>229965.24741</v>
@@ -2915,28 +3071,33 @@
         <v>-1964182.68517</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>147107.05344</v>
+        <v>148316.69264</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-1012418.39558</v>
+        <v>-1012701.36827</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-3023842.32447</v>
+        <v>-3023844.87563</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>-1899545.5935</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-5150835.143440001</v>
+        <v>-5160343.766489999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-890608.17298</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-880883.21503</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-2892997.048</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>4208.08432</v>
@@ -2966,22 +3127,27 @@
         <v>16172.88363</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>43982.81217</v>
+        <v>44052.88</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>151282.19175</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>151954.51208</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>133836.378</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>35197.79639</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-84263.70360999998</v>
+        <v>-84263.70361000001</v>
       </c>
       <c r="E57" s="47" t="n">
         <v>210407.36521</v>
@@ -2993,25 +3159,28 @@
         <v>-1984773.36235</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>118599.20313</v>
+        <v>119808.84233</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-1034361.13529</v>
+        <v>-1034644.10798</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-3035300.88058</v>
+        <v>-3035303.43174</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-1915718.47713</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-5194817.955610001</v>
+        <v>-5204396.64649</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-1041890.36473</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-1032837.72711</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-3026833.426</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>114</v>
@@ -3050,22 +3222,25 @@
         <v>294</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>342</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>402</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>